--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130518.67</v>
+        <v>1168049.82</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141314.83</v>
+        <v>116804.98</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53575.87</v>
+        <v>54495.14</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>608212.9</v>
+        <v>610368.8100000001</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106295.65</v>
+        <v>106667.7</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259357.84</v>
+        <v>260020.39</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93817.64</v>
+        <v>93768.02</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9258.77</v>
+        <v>9119.85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>33609.91</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,98 +436,130 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1168049.82</v>
+        <v>53955.34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54203.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116804.98</v>
+        <v>608194.97</v>
+      </c>
+      <c r="C3" t="n">
+        <v>610727.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54495.14</v>
+        <v>33723.56</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34244.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>610368.8100000001</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>105941.03</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86120.32000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106667.7</v>
+        <v>260428.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>261062.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>260020.39</v>
+        <v>93559.06</v>
+      </c>
+      <c r="C9" t="n">
+        <v>93715.96000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93768.02</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -537,27 +569,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9119.85</v>
+        <v>9291.49</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9157.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33609.91</v>
+        <v>116509.38</v>
+      </c>
+      <c r="C12" t="n">
+        <v>114923.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1165093.75</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1149232.32</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,157 +443,121 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53955.34</v>
-      </c>
-      <c r="C2" t="n">
-        <v>54203.95</v>
+        <v>1149232.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>608194.97</v>
-      </c>
-      <c r="C3" t="n">
-        <v>610727.05</v>
+        <v>114923.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33723.56</v>
-      </c>
-      <c r="C4" t="n">
-        <v>34244.36</v>
+        <v>54203.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+        <v>610727.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+        <v>34244.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105941.03</v>
-      </c>
-      <c r="C7" t="n">
-        <v>86120.32000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>260428.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>261062.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93559.06</v>
-      </c>
-      <c r="C9" t="n">
-        <v>93715.96000000001</v>
+        <v>86120.32000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
+        <v>261062.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9291.49</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9157.75</v>
+        <v>93715.96000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116509.38</v>
-      </c>
-      <c r="C12" t="n">
-        <v>114923.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1165093.75</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1149232.32</v>
+        <v>9157.75</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,125 +439,160 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1149232.32</v>
+        <v>54203.95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54684.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114923.23</v>
+        <v>610727.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>607449.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54203.95</v>
-      </c>
+        <v>34244.36</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>610727.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34244.36</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>86120.32000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81520.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>261062.93</v>
+      </c>
+      <c r="C8" t="n">
+        <v>261504.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86120.32000000001</v>
-      </c>
+        <v>93715.96000000001</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261062.93</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93715.96000000001</v>
+        <v>9157.75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9349.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>114923.23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>144929.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9157.75</v>
+        <v>1149232.32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1014509.14</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>54684.63</v>
       </c>
+      <c r="D2" t="n">
+        <v>54387.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>607449.66</v>
       </c>
+      <c r="D3" t="n">
+        <v>611422.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -481,6 +492,9 @@
         <v>34244.36</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>33958.61</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -492,6 +506,9 @@
         <v>0</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -505,6 +522,9 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -518,6 +538,9 @@
       <c r="C7" t="n">
         <v>81520.53</v>
       </c>
+      <c r="D7" t="n">
+        <v>75873.84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -531,6 +554,9 @@
       <c r="C8" t="n">
         <v>261504.56</v>
       </c>
+      <c r="D8" t="n">
+        <v>249108.96</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -542,6 +568,9 @@
         <v>93715.96000000001</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>93420.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -555,6 +584,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>9349.76</v>
       </c>
+      <c r="D11" t="n">
+        <v>8905.440000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -581,6 +616,9 @@
       <c r="C12" t="n">
         <v>144929.88</v>
       </c>
+      <c r="D12" t="n">
+        <v>112707.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -593,6 +631,9 @@
       </c>
       <c r="C13" t="n">
         <v>1014509.14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1127076.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>54387.01</v>
       </c>
+      <c r="E2" t="n">
+        <v>54511.32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -480,6 +488,9 @@
       </c>
       <c r="D3" t="n">
         <v>611422.17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>609834.08</v>
       </c>
     </row>
     <row r="4">
@@ -495,6 +506,9 @@
       <c r="D4" t="n">
         <v>33958.61</v>
       </c>
+      <c r="E4" t="n">
+        <v>34149.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -509,6 +523,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -525,6 +542,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -541,6 +561,9 @@
       <c r="D7" t="n">
         <v>75873.84</v>
       </c>
+      <c r="E7" t="n">
+        <v>76370.89999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -556,6 +579,9 @@
       </c>
       <c r="D8" t="n">
         <v>249108.96</v>
+      </c>
+      <c r="E8" t="n">
+        <v>249966.01</v>
       </c>
     </row>
     <row r="9">
@@ -571,6 +597,9 @@
       <c r="D9" t="n">
         <v>93420.7</v>
       </c>
+      <c r="E9" t="n">
+        <v>93467.39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -587,6 +616,7 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -603,6 +633,9 @@
       <c r="D11" t="n">
         <v>8905.440000000001</v>
       </c>
+      <c r="E11" t="n">
+        <v>9070.83</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -619,6 +652,9 @@
       <c r="D12" t="n">
         <v>112707.67</v>
       </c>
+      <c r="E12" t="n">
+        <v>125263.38</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -634,6 +670,9 @@
       </c>
       <c r="D13" t="n">
         <v>1127076.73</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1127370.42</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>54511.32</v>
       </c>
+      <c r="F2" t="n">
+        <v>53031.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +499,9 @@
       </c>
       <c r="E3" t="n">
         <v>609834.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>609418.6</v>
       </c>
     </row>
     <row r="4">
@@ -509,6 +520,9 @@
       <c r="E4" t="n">
         <v>34149.89</v>
       </c>
+      <c r="F4" t="n">
+        <v>34044.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -526,6 +540,9 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +562,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -564,6 +584,9 @@
       <c r="E7" t="n">
         <v>76370.89999999999</v>
       </c>
+      <c r="F7" t="n">
+        <v>76765.14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -582,6 +605,9 @@
       </c>
       <c r="E8" t="n">
         <v>249966.01</v>
+      </c>
+      <c r="F8" t="n">
+        <v>249634.57</v>
       </c>
     </row>
     <row r="9">
@@ -600,6 +626,9 @@
       <c r="E9" t="n">
         <v>93467.39</v>
       </c>
+      <c r="F9" t="n">
+        <v>93686.53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +646,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -636,6 +666,9 @@
       <c r="E11" t="n">
         <v>9070.83</v>
       </c>
+      <c r="F11" t="n">
+        <v>9146.26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -655,6 +688,9 @@
       <c r="E12" t="n">
         <v>125263.38</v>
       </c>
+      <c r="F12" t="n">
+        <v>125080.85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -673,6 +709,9 @@
       </c>
       <c r="E13" t="n">
         <v>1127370.42</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1125727.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>53031.8</v>
       </c>
+      <c r="G2" t="n">
+        <v>54629.94</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +510,9 @@
       </c>
       <c r="F3" t="n">
         <v>609418.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>608546.16</v>
       </c>
     </row>
     <row r="4">
@@ -523,6 +534,9 @@
       <c r="F4" t="n">
         <v>34044.75</v>
       </c>
+      <c r="G4" t="n">
+        <v>34694.65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -543,6 +557,9 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +582,9 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -587,6 +607,9 @@
       <c r="F7" t="n">
         <v>76765.14</v>
       </c>
+      <c r="G7" t="n">
+        <v>76516.89999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -608,6 +631,9 @@
       </c>
       <c r="F8" t="n">
         <v>249634.57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250237.84</v>
       </c>
     </row>
     <row r="9">
@@ -629,6 +655,9 @@
       <c r="F9" t="n">
         <v>93686.53</v>
       </c>
+      <c r="G9" t="n">
+        <v>93554.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -647,6 +676,7 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -669,6 +699,9 @@
       <c r="F11" t="n">
         <v>9146.26</v>
       </c>
+      <c r="G11" t="n">
+        <v>8960.379999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +724,9 @@
       <c r="F12" t="n">
         <v>125080.85</v>
       </c>
+      <c r="G12" t="n">
+        <v>125237.77</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +748,9 @@
       </c>
       <c r="F13" t="n">
         <v>1125727.65</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1127139.93</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>54629.94</v>
       </c>
+      <c r="H2" t="n">
+        <v>50550.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>608546.16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>565446.47</v>
       </c>
     </row>
     <row r="4">
@@ -537,6 +548,9 @@
       <c r="G4" t="n">
         <v>34694.65</v>
       </c>
+      <c r="H4" t="n">
+        <v>34622.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -560,6 +574,9 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +602,9 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -610,6 +630,9 @@
       <c r="G7" t="n">
         <v>76516.89999999999</v>
       </c>
+      <c r="H7" t="n">
+        <v>69718.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -634,6 +657,9 @@
       </c>
       <c r="G8" t="n">
         <v>250237.84</v>
+      </c>
+      <c r="H8" t="n">
+        <v>231344.15</v>
       </c>
     </row>
     <row r="9">
@@ -658,6 +684,9 @@
       <c r="G9" t="n">
         <v>93554.06</v>
       </c>
+      <c r="H9" t="n">
+        <v>85598.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -677,6 +706,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -702,6 +732,9 @@
       <c r="G11" t="n">
         <v>8960.379999999999</v>
       </c>
+      <c r="H11" t="n">
+        <v>8203.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -727,6 +760,9 @@
       <c r="G12" t="n">
         <v>125237.77</v>
       </c>
+      <c r="H12" t="n">
+        <v>116164.76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -751,6 +787,9 @@
       </c>
       <c r="G13" t="n">
         <v>1127139.93</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1045482.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>50550.09</v>
       </c>
+      <c r="I2" t="n">
+        <v>53859.49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +532,9 @@
       </c>
       <c r="H3" t="n">
         <v>565446.47</v>
+      </c>
+      <c r="I3" t="n">
+        <v>611135.8199999999</v>
       </c>
     </row>
     <row r="4">
@@ -551,6 +562,9 @@
       <c r="H4" t="n">
         <v>34622.67</v>
       </c>
+      <c r="I4" t="n">
+        <v>32831.93</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -577,6 +591,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +622,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -633,6 +653,9 @@
       <c r="H7" t="n">
         <v>69718.08</v>
       </c>
+      <c r="I7" t="n">
+        <v>75740.75999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -660,6 +683,9 @@
       </c>
       <c r="H8" t="n">
         <v>231344.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>250851.08</v>
       </c>
     </row>
     <row r="9">
@@ -686,6 +712,9 @@
       </c>
       <c r="H9" t="n">
         <v>85598.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>93955.75999999999</v>
       </c>
     </row>
     <row r="10">
@@ -707,6 +736,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -735,6 +765,9 @@
       <c r="H11" t="n">
         <v>8203.16</v>
       </c>
+      <c r="I11" t="n">
+        <v>9230.34</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -763,6 +796,9 @@
       <c r="H12" t="n">
         <v>116164.76</v>
       </c>
+      <c r="I12" t="n">
+        <v>125289.46</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -790,6 +826,9 @@
       </c>
       <c r="H13" t="n">
         <v>1045482.87</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1127605.18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>53859.49</v>
       </c>
+      <c r="J2" t="n">
+        <v>54376.91</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +543,9 @@
       </c>
       <c r="I3" t="n">
         <v>611135.8199999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>609485.73</v>
       </c>
     </row>
     <row r="4">
@@ -565,6 +576,9 @@
       <c r="I4" t="n">
         <v>32831.93</v>
       </c>
+      <c r="J4" t="n">
+        <v>34339.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -594,6 +608,9 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +642,9 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -656,6 +676,9 @@
       <c r="I7" t="n">
         <v>75740.75999999999</v>
       </c>
+      <c r="J7" t="n">
+        <v>72104.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -686,6 +709,9 @@
       </c>
       <c r="I8" t="n">
         <v>250851.08</v>
+      </c>
+      <c r="J8" t="n">
+        <v>250529.46</v>
       </c>
     </row>
     <row r="9">
@@ -715,6 +741,9 @@
       </c>
       <c r="I9" t="n">
         <v>93955.75999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>94114.37</v>
       </c>
     </row>
     <row r="10">
@@ -737,6 +766,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -768,6 +798,9 @@
       <c r="I11" t="n">
         <v>9230.34</v>
       </c>
+      <c r="J11" t="n">
+        <v>8788.290000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -799,6 +832,9 @@
       <c r="I12" t="n">
         <v>125289.46</v>
       </c>
+      <c r="J12" t="n">
+        <v>124859.79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -829,6 +865,9 @@
       </c>
       <c r="I13" t="n">
         <v>1127605.18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1123738.07</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>54376.91</v>
       </c>
+      <c r="K2" t="n">
+        <v>53590.76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +554,9 @@
       </c>
       <c r="J3" t="n">
         <v>609485.73</v>
+      </c>
+      <c r="K3" t="n">
+        <v>611141.79</v>
       </c>
     </row>
     <row r="4">
@@ -579,6 +590,9 @@
       <c r="J4" t="n">
         <v>34339.19</v>
       </c>
+      <c r="K4" t="n">
+        <v>35594.36</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -611,6 +625,9 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +662,9 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -679,6 +699,9 @@
       <c r="J7" t="n">
         <v>72104.12</v>
       </c>
+      <c r="K7" t="n">
+        <v>71962.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -712,6 +735,9 @@
       </c>
       <c r="J8" t="n">
         <v>250529.46</v>
+      </c>
+      <c r="K8" t="n">
+        <v>249887.12</v>
       </c>
     </row>
     <row r="9">
@@ -744,6 +770,9 @@
       </c>
       <c r="J9" t="n">
         <v>94114.37</v>
+      </c>
+      <c r="K9" t="n">
+        <v>92468.42</v>
       </c>
     </row>
     <row r="10">
@@ -767,6 +796,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -801,6 +831,9 @@
       <c r="J11" t="n">
         <v>8788.290000000001</v>
       </c>
+      <c r="K11" t="n">
+        <v>8996</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -835,6 +868,9 @@
       <c r="J12" t="n">
         <v>124859.79</v>
       </c>
+      <c r="K12" t="n">
+        <v>124848.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -868,6 +904,9 @@
       </c>
       <c r="J13" t="n">
         <v>1123738.07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1123640.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>53590.76</v>
       </c>
+      <c r="L2" t="n">
+        <v>53508.14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +565,9 @@
       </c>
       <c r="K3" t="n">
         <v>611141.79</v>
+      </c>
+      <c r="L3" t="n">
+        <v>610476.05</v>
       </c>
     </row>
     <row r="4">
@@ -593,6 +604,9 @@
       <c r="K4" t="n">
         <v>35594.36</v>
       </c>
+      <c r="L4" t="n">
+        <v>34397.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -628,6 +642,9 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +682,9 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -702,6 +722,9 @@
       <c r="K7" t="n">
         <v>71962.09</v>
       </c>
+      <c r="L7" t="n">
+        <v>71176.62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -738,6 +761,9 @@
       </c>
       <c r="K8" t="n">
         <v>249887.12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>251572.5</v>
       </c>
     </row>
     <row r="9">
@@ -773,6 +799,9 @@
       </c>
       <c r="K9" t="n">
         <v>92468.42</v>
+      </c>
+      <c r="L9" t="n">
+        <v>93096.28999999999</v>
       </c>
     </row>
     <row r="10">
@@ -797,6 +826,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -834,6 +864,9 @@
       <c r="K11" t="n">
         <v>8996</v>
       </c>
+      <c r="L11" t="n">
+        <v>9023.83</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -871,6 +904,9 @@
       <c r="K12" t="n">
         <v>124848.95</v>
       </c>
+      <c r="L12" t="n">
+        <v>124805.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -907,6 +943,9 @@
       </c>
       <c r="K13" t="n">
         <v>1123640.54</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1123251.32</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CECO2.xlsx
+++ b/backend/src/excel_handler/files/CECO2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>53508.14</v>
       </c>
+      <c r="M2" t="n">
+        <v>54514.76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +576,9 @@
       </c>
       <c r="L3" t="n">
         <v>610476.05</v>
+      </c>
+      <c r="M3" t="n">
+        <v>610831.0600000001</v>
       </c>
     </row>
     <row r="4">
@@ -607,6 +618,9 @@
       <c r="L4" t="n">
         <v>34397.89</v>
       </c>
+      <c r="M4" t="n">
+        <v>33564.37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -645,6 +659,9 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +702,9 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -725,6 +745,9 @@
       <c r="L7" t="n">
         <v>71176.62</v>
       </c>
+      <c r="M7" t="n">
+        <v>70734</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -764,6 +787,9 @@
       </c>
       <c r="L8" t="n">
         <v>251572.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>249955.37</v>
       </c>
     </row>
     <row r="9">
@@ -802,6 +828,9 @@
       </c>
       <c r="L9" t="n">
         <v>93096.28999999999</v>
+      </c>
+      <c r="M9" t="n">
+        <v>92731.92</v>
       </c>
     </row>
     <row r="10">
@@ -827,6 +856,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -867,6 +897,9 @@
       <c r="L11" t="n">
         <v>9023.83</v>
       </c>
+      <c r="M11" t="n">
+        <v>8786.559999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -907,6 +940,9 @@
       <c r="L12" t="n">
         <v>124805.7</v>
       </c>
+      <c r="M12" t="n">
+        <v>124568.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -946,6 +982,9 @@
       </c>
       <c r="L13" t="n">
         <v>1123251.32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1121118.04</v>
       </c>
     </row>
   </sheetData>
